--- a/test/output/SIA_Report_T1_AELU.xlsx
+++ b/test/output/SIA_Report_T1_AELU.xlsx
@@ -258,7 +258,7 @@
     <t xml:space="preserve">201906</t>
   </si>
   <si>
-    <t xml:space="preserve">El capital vigente de la cartera correspondiente al mes de junio no cuadra con el balance de comprobación durante el periodo de junio del 2019. Diferencia: S/160,904,744</t>
+    <t xml:space="preserve">El capital vigente de la cartera correspondiente al mes de junio no cuadra con el balance de comprobación durante el periodo de junio del 2019. Diferencia: S/160,904,743</t>
   </si>
   <si>
     <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de junio no cuadra con el balance de comprobación durante el periodo de junio del 2019. Diferencia: S/-157,711,365</t>
@@ -423,7 +423,7 @@
     <t xml:space="preserve">202002</t>
   </si>
   <si>
-    <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de febrero no cuadra con el balance de comprobación durante el periodo de febrero del 2020. Diferencia: S/14,066.16</t>
+    <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de febrero no cuadra con el balance de comprobación durante el periodo de febrero del 2020. Diferencia: S/14,066.13</t>
   </si>
   <si>
     <t xml:space="preserve">El capital cobranza judicial de la cartera correspondiente al mes de febrero no cuadra con el balance de comprobación durante el periodo de febrero del 2020. Diferencia: S/-14,066.16</t>
@@ -456,10 +456,10 @@
     <t xml:space="preserve">202004</t>
   </si>
   <si>
-    <t xml:space="preserve">El capital vigente de la cartera correspondiente al mes de abril no cuadra con el balance de comprobación durante el periodo de abril del 2020. Diferencia: S/-5,763.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de abril no cuadra con el balance de comprobación durante el periodo de abril del 2020. Diferencia: S/5,763.93</t>
+    <t xml:space="preserve">El capital vigente de la cartera correspondiente al mes de abril no cuadra con el balance de comprobación durante el periodo de abril del 2020. Diferencia: S/-5,763.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de abril no cuadra con el balance de comprobación durante el periodo de abril del 2020. Diferencia: S/5,763.9</t>
   </si>
   <si>
     <t xml:space="preserve">Las provisiones genéricas de la cartera correspondiente al mes de abril no cuadra con el balance de comprobación durante el periodo de abril del 2020. Diferencia: S/499,049.8</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">202006</t>
   </si>
   <si>
-    <t xml:space="preserve">El capital vigente de la cartera correspondiente al mes de junio no cuadra con el balance de comprobación durante el periodo de junio del 2020. Diferencia: S/357,311.8</t>
+    <t xml:space="preserve">El capital vigente de la cartera correspondiente al mes de junio no cuadra con el balance de comprobación durante el periodo de junio del 2020. Diferencia: S/357,311.9</t>
   </si>
   <si>
     <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de junio no cuadra con el balance de comprobación durante el periodo de junio del 2020. Diferencia: S/-357,311.8</t>
@@ -513,13 +513,13 @@
     <t xml:space="preserve">El capital vigente de la cartera correspondiente al mes de julio no cuadra con el balance de comprobación durante el periodo de julio del 2020. Diferencia: S/-459,451.9</t>
   </si>
   <si>
-    <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de julio no cuadra con el balance de comprobación durante el periodo de julio del 2020. Diferencia: S/459,451.9</t>
+    <t xml:space="preserve">El capital vencido de la cartera correspondiente al mes de julio no cuadra con el balance de comprobación durante el periodo de julio del 2020. Diferencia: S/459,451.8</t>
   </si>
   <si>
     <t xml:space="preserve">305</t>
   </si>
   <si>
-    <t xml:space="preserve">Los intereses devengados de la cartera correspondiente al mes de julio no cuadra con el balance de comprobación durante el periodo de julio del 2020. Diferencia: S/65,478.78</t>
+    <t xml:space="preserve">Los intereses devengados de la cartera correspondiente al mes de julio no cuadra con el balance de comprobación durante el periodo de julio del 2020. Diferencia: S/65,478.74</t>
   </si>
   <si>
     <t xml:space="preserve">Las provisiones genéricas de la cartera correspondiente al mes de julio no cuadra con el balance de comprobación durante el periodo de julio del 2020. Diferencia: S/571,270</t>
